--- a/data/outputs/OR_elsevier/46.xlsx
+++ b/data/outputs/OR_elsevier/46.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS33"/>
+  <dimension ref="A1:BU33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84926278979</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84941318131</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1375,6 +1397,12 @@
           <t>2-s2.0-84941317987</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1598,6 +1626,12 @@
           <t>2-s2.0-84945439166</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1813,6 +1847,12 @@
           <t>2-s2.0-84926277659</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2028,6 +2068,12 @@
           <t>2-s2.0-84937974405</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2250,6 +2296,12 @@
         <is>
           <t>2-s2.0-84937977721</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -2458,6 +2510,12 @@
           <t>2-s2.0-84937977861</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2681,6 +2739,12 @@
           <t>2-s2.0-84945453042</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2904,6 +2968,12 @@
           <t>2-s2.0-84941314492</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3122,6 +3192,12 @@
         <is>
           <t>2-s2.0-84937973830</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -3330,6 +3406,12 @@
           <t>2-s2.0-84926278198</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3545,6 +3627,12 @@
           <t>2-s2.0-84945497246</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3768,6 +3856,12 @@
           <t>2-s2.0-84945446310</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3990,6 +4084,12 @@
         <is>
           <t>2-s2.0-84945435563</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -4198,6 +4298,12 @@
           <t>2-s2.0-84941314597</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4417,6 +4523,12 @@
           <t>2-s2.0-84961333832</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4641,6 +4753,12 @@
         <is>
           <t>2-s2.0-84940008080</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4839,6 +4957,12 @@
         <v>4535261</v>
       </c>
       <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5046,6 +5170,12 @@
           <t>2-s2.0-84937911694</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5249,6 +5379,12 @@
           <t>2-s2.0-84926278281</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5456,6 +5592,12 @@
           <t>2-s2.0-84961379988</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5663,6 +5805,12 @@
           <t>2-s2.0-84926278566</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5878,6 +6026,12 @@
           <t>2-s2.0-85028219592</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6097,6 +6251,12 @@
           <t>2-s2.0-84937971590</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6312,6 +6472,12 @@
           <t>2-s2.0-84937946862</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6535,6 +6701,12 @@
           <t>2-s2.0-84945483231</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6746,6 +6918,12 @@
           <t>2-s2.0-84937966464</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6961,6 +7139,12 @@
           <t>2-s2.0-84937968619</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7176,6 +7360,12 @@
           <t>2-s2.0-84939976614</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7395,6 +7585,12 @@
           <t>2-s2.0-84926040793</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7610,6 +7806,12 @@
           <t>2-s2.0-84926277022</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
